--- a/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>TGL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64900</v>
+        <v>73800</v>
       </c>
       <c r="E8" s="3">
-        <v>23200</v>
+        <v>64500</v>
       </c>
       <c r="F8" s="3">
-        <v>43100</v>
+        <v>23100</v>
       </c>
       <c r="G8" s="3">
-        <v>21700</v>
+        <v>42800</v>
       </c>
       <c r="H8" s="3">
-        <v>14900</v>
+        <v>21500</v>
       </c>
       <c r="I8" s="3">
-        <v>68400</v>
+        <v>14800</v>
       </c>
       <c r="J8" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K8" s="3">
         <v>36600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25300</v>
+        <v>21300</v>
       </c>
       <c r="E9" s="3">
-        <v>12100</v>
+        <v>25100</v>
       </c>
       <c r="F9" s="3">
-        <v>24800</v>
+        <v>12000</v>
       </c>
       <c r="G9" s="3">
-        <v>14700</v>
+        <v>24600</v>
       </c>
       <c r="H9" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I9" s="3">
         <v>13300</v>
       </c>
-      <c r="I9" s="3">
-        <v>29800</v>
-      </c>
       <c r="J9" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K9" s="3">
         <v>19400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39600</v>
+        <v>52400</v>
       </c>
       <c r="E10" s="3">
-        <v>11100</v>
+        <v>39300</v>
       </c>
       <c r="F10" s="3">
-        <v>18300</v>
+        <v>11000</v>
       </c>
       <c r="G10" s="3">
-        <v>7000</v>
+        <v>18200</v>
       </c>
       <c r="H10" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
-        <v>38500</v>
-      </c>
       <c r="J10" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K10" s="3">
         <v>17200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,13 +887,16 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-40200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -891,45 +911,51 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>94300</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>93600</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E15" s="3">
         <v>8900</v>
       </c>
-      <c r="E15" s="3">
-        <v>6200</v>
-      </c>
       <c r="F15" s="3">
-        <v>9800</v>
+        <v>6100</v>
       </c>
       <c r="G15" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H15" s="3">
         <v>7000</v>
       </c>
-      <c r="H15" s="3">
-        <v>7300</v>
-      </c>
       <c r="I15" s="3">
-        <v>15700</v>
+        <v>7200</v>
       </c>
       <c r="J15" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K15" s="3">
         <v>11200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41100</v>
+        <v>-2200</v>
       </c>
       <c r="E17" s="3">
-        <v>24900</v>
+        <v>40800</v>
       </c>
       <c r="F17" s="3">
-        <v>40600</v>
+        <v>24700</v>
       </c>
       <c r="G17" s="3">
-        <v>25200</v>
+        <v>40300</v>
       </c>
       <c r="H17" s="3">
-        <v>26300</v>
+        <v>25000</v>
       </c>
       <c r="I17" s="3">
-        <v>143100</v>
+        <v>26100</v>
       </c>
       <c r="J17" s="3">
+        <v>142200</v>
+      </c>
+      <c r="K17" s="3">
         <v>36400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23800</v>
+        <v>76000</v>
       </c>
       <c r="E18" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-11400</v>
-      </c>
       <c r="I18" s="3">
-        <v>-74800</v>
+        <v>-11300</v>
       </c>
       <c r="J18" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6300</v>
+        <v>-20700</v>
       </c>
       <c r="E20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
-        <v>10900</v>
-      </c>
       <c r="J20" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26400</v>
+        <v>63700</v>
       </c>
       <c r="E21" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6000</v>
       </c>
-      <c r="I21" s="3">
-        <v>-48200</v>
-      </c>
       <c r="J21" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="K21" s="3">
         <v>9600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>700</v>
       </c>
       <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17100</v>
+        <v>55000</v>
       </c>
       <c r="E23" s="3">
-        <v>-8200</v>
+        <v>17000</v>
       </c>
       <c r="F23" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H23" s="3">
-        <v>-14000</v>
+        <v>-3600</v>
       </c>
       <c r="I23" s="3">
-        <v>-64900</v>
+        <v>-13900</v>
       </c>
       <c r="J23" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7200</v>
+        <v>7800</v>
       </c>
       <c r="E24" s="3">
-        <v>6000</v>
+        <v>7100</v>
       </c>
       <c r="F24" s="3">
-        <v>4400</v>
+        <v>5900</v>
       </c>
       <c r="G24" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="H24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
-        <v>5900</v>
-      </c>
       <c r="J24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K24" s="3">
         <v>7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9900</v>
+        <v>47200</v>
       </c>
       <c r="E26" s="3">
-        <v>-14100</v>
+        <v>9800</v>
       </c>
       <c r="F26" s="3">
-        <v>-3700</v>
+        <v>-14000</v>
       </c>
       <c r="G26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-7600</v>
       </c>
-      <c r="H26" s="3">
-        <v>-17100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-70800</v>
+        <v>-17000</v>
       </c>
       <c r="J26" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9900</v>
+        <v>47200</v>
       </c>
       <c r="E27" s="3">
-        <v>-14100</v>
+        <v>9800</v>
       </c>
       <c r="F27" s="3">
-        <v>-3700</v>
+        <v>-14000</v>
       </c>
       <c r="G27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H27" s="3">
         <v>-7600</v>
       </c>
-      <c r="H27" s="3">
-        <v>-17100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-70800</v>
+        <v>-17000</v>
       </c>
       <c r="J27" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6300</v>
+        <v>20700</v>
       </c>
       <c r="E32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F32" s="3">
         <v>5900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-10900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9900</v>
+        <v>47200</v>
       </c>
       <c r="E33" s="3">
-        <v>-14100</v>
+        <v>9800</v>
       </c>
       <c r="F33" s="3">
-        <v>-3700</v>
+        <v>-14000</v>
       </c>
       <c r="G33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
-        <v>-17100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-70800</v>
+        <v>-17000</v>
       </c>
       <c r="J33" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9900</v>
+        <v>47200</v>
       </c>
       <c r="E35" s="3">
-        <v>-14100</v>
+        <v>9800</v>
       </c>
       <c r="F35" s="3">
-        <v>-3700</v>
+        <v>-14000</v>
       </c>
       <c r="G35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
-        <v>-17100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-70800</v>
+        <v>-17000</v>
       </c>
       <c r="J35" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56000</v>
+        <v>68700</v>
       </c>
       <c r="E41" s="3">
-        <v>36800</v>
+        <v>55600</v>
       </c>
       <c r="F41" s="3">
-        <v>44300</v>
+        <v>36500</v>
       </c>
       <c r="G41" s="3">
-        <v>34700</v>
+        <v>44000</v>
       </c>
       <c r="H41" s="3">
-        <v>44700</v>
+        <v>34500</v>
       </c>
       <c r="I41" s="3">
-        <v>30600</v>
+        <v>44400</v>
       </c>
       <c r="J41" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K41" s="3">
         <v>42600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +1681,139 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17500</v>
+        <v>37000</v>
       </c>
       <c r="E43" s="3">
-        <v>11800</v>
+        <v>17400</v>
       </c>
       <c r="F43" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
       <c r="G43" s="3">
-        <v>15200</v>
+        <v>12700</v>
       </c>
       <c r="H43" s="3">
-        <v>24600</v>
+        <v>15100</v>
       </c>
       <c r="I43" s="3">
-        <v>61100</v>
+        <v>24400</v>
       </c>
       <c r="J43" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K43" s="3">
         <v>13700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>4700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13100</v>
       </c>
-      <c r="F44" s="3">
-        <v>7500</v>
-      </c>
       <c r="G44" s="3">
-        <v>15900</v>
+        <v>7400</v>
       </c>
       <c r="H44" s="3">
-        <v>12200</v>
+        <v>15800</v>
       </c>
       <c r="I44" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J44" s="3">
         <v>7900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3700</v>
+        <v>4600</v>
       </c>
       <c r="E45" s="3">
-        <v>4200</v>
+        <v>3600</v>
       </c>
       <c r="F45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
-        <v>4900</v>
-      </c>
       <c r="H45" s="3">
-        <v>6600</v>
+        <v>4800</v>
       </c>
       <c r="I45" s="3">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="J45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>81900</v>
+        <v>110300</v>
       </c>
       <c r="E46" s="3">
-        <v>65900</v>
+        <v>81300</v>
       </c>
       <c r="F46" s="3">
-        <v>69100</v>
+        <v>65400</v>
       </c>
       <c r="G46" s="3">
-        <v>70700</v>
+        <v>68600</v>
       </c>
       <c r="H46" s="3">
-        <v>88100</v>
+        <v>70200</v>
       </c>
       <c r="I46" s="3">
-        <v>110100</v>
+        <v>87500</v>
       </c>
       <c r="J46" s="3">
+        <v>109300</v>
+      </c>
+      <c r="K46" s="3">
         <v>84400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,48 +1841,54 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>179300</v>
+        <v>222900</v>
       </c>
       <c r="E48" s="3">
-        <v>179900</v>
+        <v>178000</v>
       </c>
       <c r="F48" s="3">
-        <v>183400</v>
+        <v>178700</v>
       </c>
       <c r="G48" s="3">
-        <v>186800</v>
+        <v>182100</v>
       </c>
       <c r="H48" s="3">
-        <v>189900</v>
+        <v>185500</v>
       </c>
       <c r="I48" s="3">
-        <v>191700</v>
+        <v>188600</v>
       </c>
       <c r="J48" s="3">
+        <v>190400</v>
+      </c>
+      <c r="K48" s="3">
         <v>257100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>259300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E49" s="3">
         <v>1500</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -1789,13 +1900,16 @@
         <v>700</v>
       </c>
       <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
         <v>43200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="E52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F52" s="3">
         <v>5600</v>
       </c>
-      <c r="F52" s="3">
-        <v>4800</v>
-      </c>
       <c r="G52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H52" s="3">
         <v>5400</v>
       </c>
-      <c r="H52" s="3">
-        <v>5200</v>
-      </c>
       <c r="I52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J52" s="3">
         <v>6800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>10800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>267400</v>
+        <v>340400</v>
       </c>
       <c r="E54" s="3">
-        <v>252900</v>
+        <v>265600</v>
       </c>
       <c r="F54" s="3">
-        <v>258000</v>
+        <v>251100</v>
       </c>
       <c r="G54" s="3">
-        <v>263700</v>
+        <v>256200</v>
       </c>
       <c r="H54" s="3">
-        <v>283900</v>
+        <v>261900</v>
       </c>
       <c r="I54" s="3">
-        <v>309400</v>
+        <v>282000</v>
       </c>
       <c r="J54" s="3">
+        <v>307300</v>
+      </c>
+      <c r="K54" s="3">
         <v>395500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,81 +2095,88 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>39500</v>
+        <v>62800</v>
       </c>
       <c r="E57" s="3">
-        <v>31300</v>
+        <v>39200</v>
       </c>
       <c r="F57" s="3">
-        <v>27800</v>
+        <v>31100</v>
       </c>
       <c r="G57" s="3">
-        <v>27000</v>
+        <v>27600</v>
       </c>
       <c r="H57" s="3">
-        <v>41900</v>
+        <v>26800</v>
       </c>
       <c r="I57" s="3">
-        <v>40300</v>
+        <v>41600</v>
       </c>
       <c r="J57" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K57" s="3">
         <v>41200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14600</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G58" s="3">
         <v>21000</v>
       </c>
-      <c r="F58" s="3">
-        <v>21100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>27400</v>
-      </c>
       <c r="H58" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
@@ -2047,100 +2184,112 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>59900</v>
+        <v>87800</v>
       </c>
       <c r="E60" s="3">
-        <v>56800</v>
+        <v>59500</v>
       </c>
       <c r="F60" s="3">
-        <v>49400</v>
+        <v>56400</v>
       </c>
       <c r="G60" s="3">
-        <v>54400</v>
+        <v>49100</v>
       </c>
       <c r="H60" s="3">
-        <v>43000</v>
+        <v>54000</v>
       </c>
       <c r="I60" s="3">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="J60" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K60" s="3">
         <v>43100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="E61" s="3">
         <v>8900</v>
       </c>
       <c r="F61" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="G61" s="3">
         <v>9000</v>
       </c>
       <c r="H61" s="3">
-        <v>35200</v>
+        <v>8900</v>
       </c>
       <c r="I61" s="3">
-        <v>47300</v>
+        <v>35000</v>
       </c>
       <c r="J61" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K61" s="3">
         <v>48300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23600</v>
+        <v>24400</v>
       </c>
       <c r="E62" s="3">
-        <v>23300</v>
+        <v>23500</v>
       </c>
       <c r="F62" s="3">
-        <v>22200</v>
+        <v>23100</v>
       </c>
       <c r="G62" s="3">
-        <v>22100</v>
+        <v>22000</v>
       </c>
       <c r="H62" s="3">
-        <v>21400</v>
+        <v>21900</v>
       </c>
       <c r="I62" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="J62" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K62" s="3">
         <v>29000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92500</v>
+        <v>121100</v>
       </c>
       <c r="E66" s="3">
-        <v>89000</v>
+        <v>91900</v>
       </c>
       <c r="F66" s="3">
-        <v>80600</v>
+        <v>88400</v>
       </c>
       <c r="G66" s="3">
-        <v>85500</v>
+        <v>80100</v>
       </c>
       <c r="H66" s="3">
-        <v>99700</v>
+        <v>84900</v>
       </c>
       <c r="I66" s="3">
-        <v>111100</v>
+        <v>99000</v>
       </c>
       <c r="J66" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K66" s="3">
         <v>120400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-57500</v>
+        <v>-9900</v>
       </c>
       <c r="E72" s="3">
-        <v>-67400</v>
+        <v>-57100</v>
       </c>
       <c r="F72" s="3">
-        <v>-53300</v>
+        <v>-66900</v>
       </c>
       <c r="G72" s="3">
-        <v>-49600</v>
+        <v>-52900</v>
       </c>
       <c r="H72" s="3">
-        <v>-41900</v>
+        <v>-49300</v>
       </c>
       <c r="I72" s="3">
-        <v>-24800</v>
+        <v>-41700</v>
       </c>
       <c r="J72" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="K72" s="3">
         <v>46000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>174900</v>
+        <v>219400</v>
       </c>
       <c r="E76" s="3">
-        <v>163900</v>
+        <v>173700</v>
       </c>
       <c r="F76" s="3">
-        <v>177400</v>
+        <v>162700</v>
       </c>
       <c r="G76" s="3">
-        <v>178200</v>
+        <v>176200</v>
       </c>
       <c r="H76" s="3">
-        <v>184200</v>
+        <v>177000</v>
       </c>
       <c r="I76" s="3">
-        <v>198300</v>
+        <v>182900</v>
       </c>
       <c r="J76" s="3">
+        <v>196900</v>
+      </c>
+      <c r="K76" s="3">
         <v>275100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>284400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9900</v>
+        <v>47200</v>
       </c>
       <c r="E81" s="3">
-        <v>-14100</v>
+        <v>9800</v>
       </c>
       <c r="F81" s="3">
-        <v>-3700</v>
+        <v>-14000</v>
       </c>
       <c r="G81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
-        <v>-17100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-70800</v>
+        <v>-17000</v>
       </c>
       <c r="J81" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
         <v>8900</v>
       </c>
-      <c r="E83" s="3">
-        <v>6200</v>
-      </c>
       <c r="F83" s="3">
-        <v>9800</v>
+        <v>6100</v>
       </c>
       <c r="G83" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="H83" s="3">
-        <v>7300</v>
-      </c>
       <c r="I83" s="3">
-        <v>15700</v>
+        <v>7200</v>
       </c>
       <c r="J83" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K83" s="3">
         <v>11200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>30600</v>
+        <v>34400</v>
       </c>
       <c r="E89" s="3">
-        <v>-5100</v>
+        <v>30400</v>
       </c>
       <c r="F89" s="3">
-        <v>18200</v>
+        <v>-5000</v>
       </c>
       <c r="G89" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
-        <v>31500</v>
-      </c>
       <c r="I89" s="3">
+        <v>31300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3600</v>
       </c>
-      <c r="I94" s="3">
-        <v>-6000</v>
-      </c>
       <c r="J94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,10 +3240,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-7300</v>
-      </c>
       <c r="G100" s="3">
-        <v>-2800</v>
+        <v>-7200</v>
       </c>
       <c r="H100" s="3">
-        <v>-13900</v>
+        <v>-2700</v>
       </c>
       <c r="I100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3133,53 +3382,59 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19200</v>
+        <v>13100</v>
       </c>
       <c r="E102" s="3">
-        <v>-7500</v>
+        <v>19100</v>
       </c>
       <c r="F102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G102" s="3">
         <v>9500</v>
       </c>
-      <c r="G102" s="3">
-        <v>-10000</v>
-      </c>
       <c r="H102" s="3">
-        <v>14100</v>
+        <v>-9900</v>
       </c>
       <c r="I102" s="3">
-        <v>-12100</v>
+        <v>14000</v>
       </c>
       <c r="J102" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K102" s="3">
         <v>11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>93600</v>
+        <v>93700</v>
       </c>
       <c r="K14" s="3">
         <v>-100</v>
@@ -974,7 +974,7 @@
         <v>-2200</v>
       </c>
       <c r="E17" s="3">
-        <v>40800</v>
+        <v>40900</v>
       </c>
       <c r="F17" s="3">
         <v>24700</v>
@@ -1157,7 +1157,7 @@
         <v>700</v>
       </c>
       <c r="H23" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="I23" s="3">
         <v>-13900</v>
@@ -1241,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>47200</v>
+        <v>47300</v>
       </c>
       <c r="E26" s="3">
         <v>9800</v>
@@ -1259,7 +1259,7 @@
         <v>-17000</v>
       </c>
       <c r="J26" s="3">
-        <v>-70300</v>
+        <v>-70400</v>
       </c>
       <c r="K26" s="3">
         <v>-10500</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>47200</v>
+        <v>47300</v>
       </c>
       <c r="E27" s="3">
         <v>9800</v>
@@ -1291,7 +1291,7 @@
         <v>-17000</v>
       </c>
       <c r="J27" s="3">
-        <v>-70300</v>
+        <v>-70400</v>
       </c>
       <c r="K27" s="3">
         <v>-10500</v>
@@ -1465,7 +1465,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>47200</v>
+        <v>47300</v>
       </c>
       <c r="E33" s="3">
         <v>9800</v>
@@ -1483,7 +1483,7 @@
         <v>-17000</v>
       </c>
       <c r="J33" s="3">
-        <v>-70300</v>
+        <v>-70400</v>
       </c>
       <c r="K33" s="3">
         <v>-10500</v>
@@ -1529,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>47200</v>
+        <v>47300</v>
       </c>
       <c r="E35" s="3">
         <v>9800</v>
@@ -1547,7 +1547,7 @@
         <v>-17000</v>
       </c>
       <c r="J35" s="3">
-        <v>-70300</v>
+        <v>-70400</v>
       </c>
       <c r="K35" s="3">
         <v>-10500</v>
@@ -1626,7 +1626,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="E41" s="3">
         <v>55600</v>
@@ -1705,10 +1705,10 @@
         <v>15100</v>
       </c>
       <c r="I43" s="3">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="J43" s="3">
-        <v>60600</v>
+        <v>60700</v>
       </c>
       <c r="K43" s="3">
         <v>13700</v>
@@ -1772,7 +1772,7 @@
         <v>6500</v>
       </c>
       <c r="J45" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="K45" s="3">
         <v>5600</v>
@@ -1786,10 +1786,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>110300</v>
+        <v>110400</v>
       </c>
       <c r="E46" s="3">
-        <v>81300</v>
+        <v>81400</v>
       </c>
       <c r="F46" s="3">
         <v>65400</v>
@@ -1798,13 +1798,13 @@
         <v>68600</v>
       </c>
       <c r="H46" s="3">
-        <v>70200</v>
+        <v>70300</v>
       </c>
       <c r="I46" s="3">
         <v>87500</v>
       </c>
       <c r="J46" s="3">
-        <v>109300</v>
+        <v>109400</v>
       </c>
       <c r="K46" s="3">
         <v>84400</v>
@@ -1850,25 +1850,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>222900</v>
+        <v>223000</v>
       </c>
       <c r="E48" s="3">
-        <v>178000</v>
+        <v>178100</v>
       </c>
       <c r="F48" s="3">
         <v>178700</v>
       </c>
       <c r="G48" s="3">
-        <v>182100</v>
+        <v>182200</v>
       </c>
       <c r="H48" s="3">
-        <v>185500</v>
+        <v>185600</v>
       </c>
       <c r="I48" s="3">
-        <v>188600</v>
+        <v>188700</v>
       </c>
       <c r="J48" s="3">
-        <v>190400</v>
+        <v>190500</v>
       </c>
       <c r="K48" s="3">
         <v>257100</v>
@@ -2042,25 +2042,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>340400</v>
+        <v>340600</v>
       </c>
       <c r="E54" s="3">
-        <v>265600</v>
+        <v>265700</v>
       </c>
       <c r="F54" s="3">
-        <v>251100</v>
+        <v>251200</v>
       </c>
       <c r="G54" s="3">
-        <v>256200</v>
+        <v>256300</v>
       </c>
       <c r="H54" s="3">
-        <v>261900</v>
+        <v>262000</v>
       </c>
       <c r="I54" s="3">
-        <v>282000</v>
+        <v>282100</v>
       </c>
       <c r="J54" s="3">
-        <v>307300</v>
+        <v>307400</v>
       </c>
       <c r="K54" s="3">
         <v>395500</v>
@@ -2198,25 +2198,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87800</v>
+        <v>87900</v>
       </c>
       <c r="E60" s="3">
         <v>59500</v>
       </c>
       <c r="F60" s="3">
-        <v>56400</v>
+        <v>56500</v>
       </c>
       <c r="G60" s="3">
         <v>49100</v>
       </c>
       <c r="H60" s="3">
-        <v>54000</v>
+        <v>54100</v>
       </c>
       <c r="I60" s="3">
-        <v>42700</v>
+        <v>42800</v>
       </c>
       <c r="J60" s="3">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="K60" s="3">
         <v>43100</v>
@@ -2271,7 +2271,7 @@
         <v>23100</v>
       </c>
       <c r="G62" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="H62" s="3">
         <v>21900</v>
@@ -2402,13 +2402,13 @@
         <v>80100</v>
       </c>
       <c r="H66" s="3">
-        <v>84900</v>
+        <v>85000</v>
       </c>
       <c r="I66" s="3">
-        <v>99000</v>
+        <v>99100</v>
       </c>
       <c r="J66" s="3">
-        <v>110300</v>
+        <v>110400</v>
       </c>
       <c r="K66" s="3">
         <v>120400</v>
@@ -2570,7 +2570,7 @@
         <v>-57100</v>
       </c>
       <c r="F72" s="3">
-        <v>-66900</v>
+        <v>-67000</v>
       </c>
       <c r="G72" s="3">
         <v>-52900</v>
@@ -2695,10 +2695,10 @@
         <v>219400</v>
       </c>
       <c r="E76" s="3">
-        <v>173700</v>
+        <v>173800</v>
       </c>
       <c r="F76" s="3">
-        <v>162700</v>
+        <v>162800</v>
       </c>
       <c r="G76" s="3">
         <v>176200</v>
@@ -2707,10 +2707,10 @@
         <v>177000</v>
       </c>
       <c r="I76" s="3">
-        <v>182900</v>
+        <v>183000</v>
       </c>
       <c r="J76" s="3">
-        <v>196900</v>
+        <v>197000</v>
       </c>
       <c r="K76" s="3">
         <v>275100</v>
@@ -2793,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>47200</v>
+        <v>47300</v>
       </c>
       <c r="E81" s="3">
         <v>9800</v>
@@ -2811,7 +2811,7 @@
         <v>-17000</v>
       </c>
       <c r="J81" s="3">
-        <v>-70300</v>
+        <v>-70400</v>
       </c>
       <c r="K81" s="3">
         <v>-10500</v>

--- a/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,180 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>73800</v>
+        <v>69100</v>
       </c>
       <c r="E8" s="3">
-        <v>64500</v>
+        <v>55400</v>
       </c>
       <c r="F8" s="3">
-        <v>23100</v>
+        <v>75500</v>
       </c>
       <c r="G8" s="3">
-        <v>42800</v>
+        <v>66000</v>
       </c>
       <c r="H8" s="3">
-        <v>21500</v>
+        <v>23600</v>
       </c>
       <c r="I8" s="3">
+        <v>43800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K8" s="3">
         <v>14800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>67900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>36600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21300</v>
+        <v>17300</v>
       </c>
       <c r="E9" s="3">
-        <v>25100</v>
+        <v>20200</v>
       </c>
       <c r="F9" s="3">
-        <v>12000</v>
+        <v>21800</v>
       </c>
       <c r="G9" s="3">
-        <v>24600</v>
+        <v>25700</v>
       </c>
       <c r="H9" s="3">
-        <v>14600</v>
+        <v>12300</v>
       </c>
       <c r="I9" s="3">
+        <v>25200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K9" s="3">
         <v>13300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>29600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>19400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="E10" s="3">
-        <v>39300</v>
+        <v>35200</v>
       </c>
       <c r="F10" s="3">
-        <v>11000</v>
+        <v>53700</v>
       </c>
       <c r="G10" s="3">
-        <v>18200</v>
+        <v>40300</v>
       </c>
       <c r="H10" s="3">
-        <v>6900</v>
+        <v>11300</v>
       </c>
       <c r="I10" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>38300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>17200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,19 +923,25 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-40200</v>
+        <v>-44300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-41100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -914,48 +953,60 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>93700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8400</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="F15" s="3">
-        <v>6100</v>
+        <v>8600</v>
       </c>
       <c r="G15" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="H15" s="3">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="I15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="3">
         <v>7200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L15" s="3">
         <v>15600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>11200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-2200</v>
+        <v>-8300</v>
       </c>
       <c r="E17" s="3">
-        <v>40900</v>
+        <v>39300</v>
       </c>
       <c r="F17" s="3">
-        <v>24700</v>
+        <v>-2300</v>
       </c>
       <c r="G17" s="3">
-        <v>40300</v>
+        <v>41800</v>
       </c>
       <c r="H17" s="3">
-        <v>25000</v>
+        <v>25300</v>
       </c>
       <c r="I17" s="3">
+        <v>41300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K17" s="3">
         <v>26100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>142200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>36400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>76000</v>
+        <v>77400</v>
       </c>
       <c r="E18" s="3">
-        <v>23600</v>
+        <v>16200</v>
       </c>
       <c r="F18" s="3">
+        <v>77800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3500</v>
-      </c>
       <c r="I18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-74300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1108,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20700</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6200</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5900</v>
+        <v>-21200</v>
       </c>
       <c r="G20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>10800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>63700</v>
+        <v>84500</v>
       </c>
       <c r="E21" s="3">
-        <v>26300</v>
+        <v>25800</v>
       </c>
       <c r="F21" s="3">
+        <v>65200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>26900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
-        <v>11200</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J21" s="3">
         <v>4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-47900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>9600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55000</v>
+        <v>74800</v>
       </c>
       <c r="E23" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="F23" s="3">
-        <v>-8100</v>
+        <v>56300</v>
       </c>
       <c r="G23" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-13900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-64500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7800</v>
+        <v>11200</v>
       </c>
       <c r="E24" s="3">
-        <v>7100</v>
+        <v>7900</v>
       </c>
       <c r="F24" s="3">
-        <v>5900</v>
+        <v>8000</v>
       </c>
       <c r="G24" s="3">
-        <v>4300</v>
+        <v>7300</v>
       </c>
       <c r="H24" s="3">
-        <v>3900</v>
+        <v>6100</v>
       </c>
       <c r="I24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>47300</v>
+        <v>63700</v>
       </c>
       <c r="E26" s="3">
-        <v>9800</v>
+        <v>8600</v>
       </c>
       <c r="F26" s="3">
-        <v>-14000</v>
+        <v>48400</v>
       </c>
       <c r="G26" s="3">
-        <v>-3600</v>
+        <v>10100</v>
       </c>
       <c r="H26" s="3">
-        <v>-7600</v>
+        <v>-14400</v>
       </c>
       <c r="I26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-17000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-70400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>47300</v>
+        <v>63700</v>
       </c>
       <c r="E27" s="3">
-        <v>9800</v>
+        <v>8600</v>
       </c>
       <c r="F27" s="3">
-        <v>-14000</v>
+        <v>48400</v>
       </c>
       <c r="G27" s="3">
-        <v>-3600</v>
+        <v>10100</v>
       </c>
       <c r="H27" s="3">
-        <v>-7600</v>
+        <v>-14400</v>
       </c>
       <c r="I27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-17000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-70400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20700</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
-        <v>6200</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>5900</v>
+        <v>21200</v>
       </c>
       <c r="G32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-10800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>47300</v>
+        <v>63700</v>
       </c>
       <c r="E33" s="3">
-        <v>9800</v>
+        <v>8600</v>
       </c>
       <c r="F33" s="3">
-        <v>-14000</v>
+        <v>48400</v>
       </c>
       <c r="G33" s="3">
-        <v>-3600</v>
+        <v>10100</v>
       </c>
       <c r="H33" s="3">
-        <v>-7600</v>
+        <v>-14400</v>
       </c>
       <c r="I33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-17000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-70400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>47300</v>
+        <v>63700</v>
       </c>
       <c r="E35" s="3">
-        <v>9800</v>
+        <v>8600</v>
       </c>
       <c r="F35" s="3">
-        <v>-14000</v>
+        <v>48400</v>
       </c>
       <c r="G35" s="3">
-        <v>-3600</v>
+        <v>10100</v>
       </c>
       <c r="H35" s="3">
-        <v>-7600</v>
+        <v>-14400</v>
       </c>
       <c r="I35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-17000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-70400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1791,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>68800</v>
+        <v>48600</v>
       </c>
       <c r="E41" s="3">
-        <v>55600</v>
+        <v>49500</v>
       </c>
       <c r="F41" s="3">
-        <v>36500</v>
+        <v>70400</v>
       </c>
       <c r="G41" s="3">
-        <v>44000</v>
+        <v>56900</v>
       </c>
       <c r="H41" s="3">
-        <v>34500</v>
+        <v>37400</v>
       </c>
       <c r="I41" s="3">
+        <v>45000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K41" s="3">
         <v>44400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>42600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,136 +1863,166 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>37000</v>
+        <v>97400</v>
       </c>
       <c r="E43" s="3">
-        <v>17400</v>
+        <v>15900</v>
       </c>
       <c r="F43" s="3">
-        <v>11700</v>
+        <v>37900</v>
       </c>
       <c r="G43" s="3">
-        <v>12700</v>
+        <v>17800</v>
       </c>
       <c r="H43" s="3">
-        <v>15100</v>
+        <v>12000</v>
       </c>
       <c r="I43" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K43" s="3">
         <v>24500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>60700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>13700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E44" s="3">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>13100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>7400</v>
+        <v>4800</v>
       </c>
       <c r="H44" s="3">
-        <v>15800</v>
+        <v>13400</v>
       </c>
       <c r="I44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K44" s="3">
         <v>12100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>22500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>110400</v>
+        <v>152800</v>
       </c>
       <c r="E46" s="3">
-        <v>81400</v>
+        <v>70700</v>
       </c>
       <c r="F46" s="3">
-        <v>65400</v>
+        <v>113000</v>
       </c>
       <c r="G46" s="3">
-        <v>68600</v>
+        <v>83300</v>
       </c>
       <c r="H46" s="3">
+        <v>67000</v>
+      </c>
+      <c r="I46" s="3">
         <v>70300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>71900</v>
+      </c>
+      <c r="K46" s="3">
         <v>87500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>109400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>84400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +2053,90 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>223000</v>
+        <v>265900</v>
       </c>
       <c r="E48" s="3">
-        <v>178100</v>
+        <v>229600</v>
       </c>
       <c r="F48" s="3">
-        <v>178700</v>
+        <v>228300</v>
       </c>
       <c r="G48" s="3">
-        <v>182200</v>
+        <v>182300</v>
       </c>
       <c r="H48" s="3">
-        <v>185600</v>
+        <v>183000</v>
       </c>
       <c r="I48" s="3">
+        <v>186500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K48" s="3">
         <v>188700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>190500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>257100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>259300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
+        <v>800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>800</v>
+      </c>
+      <c r="K49" s="3">
         <v>700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
       </c>
-      <c r="I49" s="3">
-        <v>700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>700</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>43200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2205,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>4700</v>
+        <v>8100</v>
       </c>
       <c r="F52" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="G52" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H52" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="I52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K52" s="3">
         <v>5100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>10800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>340600</v>
+        <v>422200</v>
       </c>
       <c r="E54" s="3">
-        <v>265700</v>
+        <v>311900</v>
       </c>
       <c r="F54" s="3">
-        <v>251200</v>
+        <v>348600</v>
       </c>
       <c r="G54" s="3">
-        <v>256300</v>
+        <v>271900</v>
       </c>
       <c r="H54" s="3">
-        <v>262000</v>
+        <v>257200</v>
       </c>
       <c r="I54" s="3">
+        <v>262400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>268200</v>
+      </c>
+      <c r="K54" s="3">
         <v>282100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>307400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>395500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2355,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62800</v>
+        <v>54200</v>
       </c>
       <c r="E57" s="3">
-        <v>39200</v>
+        <v>34100</v>
       </c>
       <c r="F57" s="3">
-        <v>31100</v>
+        <v>64300</v>
       </c>
       <c r="G57" s="3">
-        <v>27600</v>
+        <v>40100</v>
       </c>
       <c r="H57" s="3">
-        <v>26800</v>
+        <v>31800</v>
       </c>
       <c r="I57" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K57" s="3">
         <v>41600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>40000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>41200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
-        <v>14500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>20800</v>
-      </c>
       <c r="G58" s="3">
-        <v>21000</v>
+        <v>14800</v>
       </c>
       <c r="H58" s="3">
-        <v>27300</v>
+        <v>21300</v>
       </c>
       <c r="I58" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23800</v>
+        <v>18900</v>
       </c>
       <c r="E59" s="3">
-        <v>5900</v>
+        <v>8200</v>
       </c>
       <c r="F59" s="3">
-        <v>4500</v>
+        <v>24400</v>
       </c>
       <c r="G59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87900</v>
+        <v>74000</v>
       </c>
       <c r="E60" s="3">
-        <v>59500</v>
+        <v>43200</v>
       </c>
       <c r="F60" s="3">
-        <v>56500</v>
+        <v>89900</v>
       </c>
       <c r="G60" s="3">
-        <v>49100</v>
+        <v>60900</v>
       </c>
       <c r="H60" s="3">
-        <v>54100</v>
+        <v>57800</v>
       </c>
       <c r="I60" s="3">
+        <v>50200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K60" s="3">
         <v>42800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>41500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>43100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8800</v>
+        <v>4200</v>
       </c>
       <c r="E61" s="3">
-        <v>8900</v>
+        <v>4000</v>
       </c>
       <c r="F61" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="G61" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="H61" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="I61" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K61" s="3">
         <v>35000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>47000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>48300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24400</v>
+        <v>56800</v>
       </c>
       <c r="E62" s="3">
-        <v>23500</v>
+        <v>31700</v>
       </c>
       <c r="F62" s="3">
-        <v>23100</v>
+        <v>25000</v>
       </c>
       <c r="G62" s="3">
-        <v>22100</v>
+        <v>24000</v>
       </c>
       <c r="H62" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K62" s="3">
+        <v>21300</v>
+      </c>
+      <c r="L62" s="3">
         <v>21900</v>
       </c>
-      <c r="I62" s="3">
-        <v>21300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>21900</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>29000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>121100</v>
+        <v>135000</v>
       </c>
       <c r="E66" s="3">
-        <v>91900</v>
+        <v>78900</v>
       </c>
       <c r="F66" s="3">
-        <v>88400</v>
+        <v>124000</v>
       </c>
       <c r="G66" s="3">
-        <v>80100</v>
+        <v>94100</v>
       </c>
       <c r="H66" s="3">
-        <v>85000</v>
+        <v>90500</v>
       </c>
       <c r="I66" s="3">
+        <v>82000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K66" s="3">
         <v>99100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>110400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>120400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9900</v>
+        <v>52600</v>
       </c>
       <c r="E72" s="3">
-        <v>-57100</v>
+        <v>-1500</v>
       </c>
       <c r="F72" s="3">
-        <v>-67000</v>
+        <v>-10100</v>
       </c>
       <c r="G72" s="3">
-        <v>-52900</v>
+        <v>-58500</v>
       </c>
       <c r="H72" s="3">
-        <v>-49300</v>
+        <v>-68500</v>
       </c>
       <c r="I72" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-41700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-24600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>46000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>219400</v>
+        <v>287200</v>
       </c>
       <c r="E76" s="3">
-        <v>173800</v>
+        <v>232900</v>
       </c>
       <c r="F76" s="3">
-        <v>162800</v>
+        <v>224600</v>
       </c>
       <c r="G76" s="3">
-        <v>176200</v>
+        <v>177900</v>
       </c>
       <c r="H76" s="3">
-        <v>177000</v>
+        <v>166700</v>
       </c>
       <c r="I76" s="3">
+        <v>180400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>181200</v>
+      </c>
+      <c r="K76" s="3">
         <v>183000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>197000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>275100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>284400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>47300</v>
+        <v>63700</v>
       </c>
       <c r="E81" s="3">
-        <v>9800</v>
+        <v>8600</v>
       </c>
       <c r="F81" s="3">
-        <v>-14000</v>
+        <v>48400</v>
       </c>
       <c r="G81" s="3">
-        <v>-3600</v>
+        <v>10100</v>
       </c>
       <c r="H81" s="3">
-        <v>-7600</v>
+        <v>-14400</v>
       </c>
       <c r="I81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-17000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-70400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8400</v>
+        <v>9000</v>
       </c>
       <c r="E83" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="F83" s="3">
-        <v>6100</v>
+        <v>8600</v>
       </c>
       <c r="G83" s="3">
-        <v>9700</v>
+        <v>9100</v>
       </c>
       <c r="H83" s="3">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="I83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J83" s="3">
         <v>7200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L83" s="3">
         <v>15600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>11200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34400</v>
+        <v>-31000</v>
       </c>
       <c r="E89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>35300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>31100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>31300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="M89" s="3">
         <v>30400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>18100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>31300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>30400</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-600</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7600</v>
+        <v>-11500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3900</v>
+        <v>-11800</v>
       </c>
       <c r="F94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-14600</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,10 +3710,16 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3826,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13500</v>
+        <v>41600</v>
       </c>
       <c r="E100" s="3">
-        <v>-7200</v>
+        <v>-6500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1000</v>
+        <v>-13800</v>
       </c>
       <c r="G100" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2700</v>
+        <v>-1100</v>
       </c>
       <c r="I100" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-13800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-200</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13100</v>
+        <v>-900</v>
       </c>
       <c r="E102" s="3">
-        <v>19100</v>
+        <v>-20900</v>
       </c>
       <c r="F102" s="3">
-        <v>-7400</v>
+        <v>13500</v>
       </c>
       <c r="G102" s="3">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="H102" s="3">
-        <v>-9900</v>
+        <v>-7600</v>
       </c>
       <c r="I102" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K102" s="3">
         <v>14000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-12400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>TGL</t>
   </si>
@@ -666,10 +666,11 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -697,19 +698,19 @@
         <v>44561</v>
       </c>
       <c r="F7" s="2">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="G7" s="2">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="H7" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
-        <v>44104</v>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K7" s="2">
         <v>44012</v>
@@ -729,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>69100</v>
+        <v>20700</v>
       </c>
       <c r="E8" s="3">
-        <v>55400</v>
+        <v>42700</v>
       </c>
       <c r="F8" s="3">
-        <v>75500</v>
+        <v>13600</v>
       </c>
       <c r="G8" s="3">
-        <v>66000</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>23600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>43800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>22000</v>
+        <v>100</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K8" s="3">
         <v>14800</v>
@@ -767,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17300</v>
+        <v>20700</v>
       </c>
       <c r="E9" s="3">
-        <v>20200</v>
+        <v>42500</v>
       </c>
       <c r="F9" s="3">
-        <v>21800</v>
+        <v>13600</v>
       </c>
       <c r="G9" s="3">
-        <v>25700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>12300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>25200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>15000</v>
+        <v>300</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>13300</v>
@@ -805,25 +806,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>51800</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>35200</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>53700</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>40300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>18600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>7100</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K10" s="3">
         <v>1500</v>
@@ -858,20 +859,20 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -935,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-44300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-41100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -973,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>7200</v>
@@ -1024,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-8300</v>
+        <v>23300</v>
       </c>
       <c r="E17" s="3">
-        <v>39300</v>
+        <v>48000</v>
       </c>
       <c r="F17" s="3">
-        <v>-2300</v>
+        <v>17100</v>
       </c>
       <c r="G17" s="3">
-        <v>41800</v>
+        <v>2700</v>
       </c>
       <c r="H17" s="3">
-        <v>25300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>41300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>25600</v>
+        <v>1800</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K17" s="3">
         <v>26100</v>
@@ -1062,25 +1063,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>77400</v>
+        <v>-2600</v>
       </c>
       <c r="E18" s="3">
-        <v>16200</v>
+        <v>-5300</v>
       </c>
       <c r="F18" s="3">
-        <v>77800</v>
+        <v>-3500</v>
       </c>
       <c r="G18" s="3">
-        <v>24200</v>
+        <v>-2400</v>
       </c>
       <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-3600</v>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K18" s="3">
         <v>-11300</v>
@@ -1116,25 +1117,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1900</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
-        <v>-21200</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>-6400</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>-1800</v>
@@ -1154,25 +1155,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>84500</v>
+        <v>-2800</v>
       </c>
       <c r="E21" s="3">
-        <v>25800</v>
+        <v>-5500</v>
       </c>
       <c r="F21" s="3">
-        <v>65200</v>
+        <v>-3600</v>
       </c>
       <c r="G21" s="3">
-        <v>26900</v>
+        <v>-2500</v>
       </c>
       <c r="H21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>4100</v>
+        <v>-1700</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>-6000</v>
@@ -1192,25 +1193,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>300</v>
-      </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>700</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>800</v>
@@ -1230,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>74800</v>
+        <v>-3200</v>
       </c>
       <c r="E23" s="3">
-        <v>16400</v>
+        <v>-5900</v>
       </c>
       <c r="F23" s="3">
-        <v>56300</v>
+        <v>-3700</v>
       </c>
       <c r="G23" s="3">
-        <v>17400</v>
+        <v>-2500</v>
       </c>
       <c r="H23" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3700</v>
+        <v>-1700</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K23" s="3">
         <v>-13900</v>
@@ -1268,25 +1269,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4000</v>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>3100</v>
@@ -1344,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63700</v>
+        <v>-3200</v>
       </c>
       <c r="E26" s="3">
-        <v>8600</v>
+        <v>-5900</v>
       </c>
       <c r="F26" s="3">
-        <v>48400</v>
+        <v>-3700</v>
       </c>
       <c r="G26" s="3">
-        <v>10100</v>
+        <v>-2500</v>
       </c>
       <c r="H26" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-7800</v>
+        <v>-1700</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K26" s="3">
         <v>-17000</v>
@@ -1382,25 +1383,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63700</v>
+        <v>-3200</v>
       </c>
       <c r="E27" s="3">
-        <v>8600</v>
+        <v>-5900</v>
       </c>
       <c r="F27" s="3">
-        <v>48400</v>
+        <v>-3700</v>
       </c>
       <c r="G27" s="3">
-        <v>10100</v>
+        <v>-2500</v>
       </c>
       <c r="H27" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-7800</v>
+        <v>-1700</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K27" s="3">
         <v>-17000</v>
@@ -1572,25 +1573,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>21200</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-500</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>1800</v>
@@ -1610,25 +1611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>63700</v>
+        <v>-3200</v>
       </c>
       <c r="E33" s="3">
-        <v>8600</v>
+        <v>-5900</v>
       </c>
       <c r="F33" s="3">
-        <v>48400</v>
+        <v>-3700</v>
       </c>
       <c r="G33" s="3">
-        <v>10100</v>
+        <v>-2500</v>
       </c>
       <c r="H33" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-7800</v>
+        <v>-1700</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K33" s="3">
         <v>-17000</v>
@@ -1686,25 +1687,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>63700</v>
+        <v>-3200</v>
       </c>
       <c r="E35" s="3">
-        <v>8600</v>
+        <v>-5900</v>
       </c>
       <c r="F35" s="3">
-        <v>48400</v>
+        <v>-3700</v>
       </c>
       <c r="G35" s="3">
-        <v>10100</v>
+        <v>-2500</v>
       </c>
       <c r="H35" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-7800</v>
+        <v>-1700</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K35" s="3">
         <v>-17000</v>
@@ -1735,19 +1736,19 @@
         <v>44561</v>
       </c>
       <c r="F38" s="2">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="G38" s="2">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="H38" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
-        <v>44104</v>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K38" s="2">
         <v>44012</v>
@@ -1799,25 +1800,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48600</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="3">
-        <v>49500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>70400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>56900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>37400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>45000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>35300</v>
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K41" s="3">
         <v>44400</v>
@@ -1875,25 +1876,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>97400</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>15900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>37900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>15500</v>
+        <v>200</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>24500</v>
@@ -1913,25 +1914,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>16200</v>
+        <v>200</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>12100</v>
@@ -1951,25 +1952,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5900</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4900</v>
+        <v>100</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>6500</v>
@@ -1989,25 +1990,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>152800</v>
+        <v>2000</v>
       </c>
       <c r="E46" s="3">
-        <v>70700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>113000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>83300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>67000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>70300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>71900</v>
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K46" s="3">
         <v>87500</v>
@@ -2065,25 +2066,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>265900</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>229600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>228300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>182300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>183000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>186500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>190000</v>
+        <v>300</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
         <v>188700</v>
@@ -2103,25 +2104,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -2219,23 +2220,23 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>8100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5500</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>5100</v>
@@ -2293,25 +2294,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>422200</v>
+        <v>2400</v>
       </c>
       <c r="E54" s="3">
-        <v>311900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>348600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>271900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>257200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>262400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>268200</v>
+        <v>2300</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K54" s="3">
         <v>282100</v>
@@ -2363,25 +2364,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>54200</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>34100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>64300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>40100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>31800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>28300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>27400</v>
+        <v>600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K57" s="3">
         <v>41600</v>
@@ -2401,25 +2402,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>14800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>21500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>27900</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>1200</v>
@@ -2439,25 +2440,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18900</v>
+        <v>6000</v>
       </c>
       <c r="E59" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>24400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>5800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2477,25 +2478,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74000</v>
+        <v>8800</v>
       </c>
       <c r="E60" s="3">
-        <v>43200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>89900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>60900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>57800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>50200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>55300</v>
+        <v>6400</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K60" s="3">
         <v>42800</v>
@@ -2515,25 +2516,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4200</v>
+        <v>7800</v>
       </c>
       <c r="E61" s="3">
-        <v>4000</v>
+        <v>7700</v>
       </c>
       <c r="F61" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>35000</v>
@@ -2553,25 +2554,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56800</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>31700</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>23700</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>22600</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>21300</v>
@@ -2705,25 +2706,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>135000</v>
+        <v>16600</v>
       </c>
       <c r="E66" s="3">
-        <v>78900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>124000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>94100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>90500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>82000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>87000</v>
+        <v>14200</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K66" s="3">
         <v>99100</v>
@@ -2911,25 +2912,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>52600</v>
+        <v>-17100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-58500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-68500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-54200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-50400</v>
+        <v>-13900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>-41700</v>
@@ -3063,25 +3064,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>287200</v>
+        <v>-14200</v>
       </c>
       <c r="E76" s="3">
-        <v>232900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>224600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>177900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>166700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>180400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>181200</v>
+        <v>-11900</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K76" s="3">
         <v>183000</v>
@@ -3150,19 +3151,19 @@
         <v>44561</v>
       </c>
       <c r="F80" s="2">
-        <v>44469</v>
+        <v>44377</v>
       </c>
       <c r="G80" s="2">
-        <v>44377</v>
+        <v>44286</v>
       </c>
       <c r="H80" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
-        <v>44104</v>
+      <c r="I80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K80" s="2">
         <v>44012</v>
@@ -3182,25 +3183,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>63700</v>
+        <v>-3200</v>
       </c>
       <c r="E81" s="3">
-        <v>8600</v>
+        <v>-5900</v>
       </c>
       <c r="F81" s="3">
-        <v>48400</v>
+        <v>-3700</v>
       </c>
       <c r="G81" s="3">
-        <v>10100</v>
+        <v>-2500</v>
       </c>
       <c r="H81" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-7800</v>
+        <v>-1700</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K81" s="3">
         <v>-17000</v>
@@ -3236,25 +3237,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7200</v>
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>7200</v>
@@ -3464,25 +3465,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-31000</v>
+        <v>-2100</v>
       </c>
       <c r="E89" s="3">
-        <v>-2600</v>
+        <v>-3800</v>
       </c>
       <c r="F89" s="3">
-        <v>35300</v>
+        <v>-4400</v>
       </c>
       <c r="G89" s="3">
-        <v>31100</v>
+        <v>-1300</v>
       </c>
       <c r="H89" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-4400</v>
+        <v>-1100</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>31300</v>
@@ -3518,25 +3519,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -3632,25 +3633,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11500</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-11800</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7800</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-4000</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-3000</v>
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-3600</v>
@@ -3838,25 +3839,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>41600</v>
+        <v>2100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6500</v>
+        <v>2800</v>
       </c>
       <c r="F100" s="3">
-        <v>-13800</v>
+        <v>5900</v>
       </c>
       <c r="G100" s="3">
-        <v>-7300</v>
+        <v>2500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-2800</v>
+        <v>1400</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-13800</v>
@@ -3882,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>-200</v>
@@ -3890,11 +3891,11 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3">
-        <v>200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>100</v>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3914,25 +3915,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-20900</v>
+        <v>-1300</v>
       </c>
       <c r="F102" s="3">
-        <v>13500</v>
+        <v>1600</v>
       </c>
       <c r="G102" s="3">
-        <v>19500</v>
+        <v>900</v>
       </c>
       <c r="H102" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-10100</v>
+        <v>300</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K102" s="3">
         <v>14000</v>

--- a/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>TGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,219 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G8" s="3">
         <v>20700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>42700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>13600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
         <v>14800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>67900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>36600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G9" s="3">
         <v>20700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>42500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>13600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
         <v>13300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>29600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>19400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>38300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>17200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,19 +892,22 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>200</v>
-      </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -874,14 +915,14 @@
       <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>200</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
@@ -892,8 +933,17 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +980,17 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,16 +1019,25 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>93700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -995,19 +1063,28 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>7200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>15600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>11200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1096,105 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="G17" s="3">
         <v>23300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>48000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>17100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>26100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>142200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>36400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>-11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-74300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,160 +1209,199 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>10800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>-6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-47900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>9600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>-13900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-64500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1283,26 +1420,35 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>5800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>7700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1485,111 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>-17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-70400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-10500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>-17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-70400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1626,17 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1673,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1720,17 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1767,111 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-10800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>-17000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-70400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1908,116 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>-17000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-70400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +2032,11 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +2051,58 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>44400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>30400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>42600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,63 +2139,81 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>24500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>60700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>13700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -1934,96 +2221,123 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>12100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>7900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>22500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>10500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>87500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>109400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>84400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,25 +2374,34 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
+      <c r="H48" s="3">
+        <v>300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
@@ -2086,20 +2409,29 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>188700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>190500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>257100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>259300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2125,19 +2457,28 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>43200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2515,17 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,22 +2562,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -2238,20 +2597,29 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>5100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>6800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>10800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2656,64 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>282100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>307400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>395500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2728,11 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,63 +2747,75 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>41600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>40000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>41200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2422,114 +2823,141 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>42800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>41500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>43100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>7800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>7700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2537,19 +2965,28 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>35000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>47000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>48300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2559,35 +2996,44 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>21300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>21900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>29000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +3070,17 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +3117,17 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3164,64 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G66" s="3">
         <v>16600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>14200</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>99100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>110400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>120400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3236,11 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3277,17 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3324,17 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3371,17 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3418,64 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-17100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-13900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-41700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-24600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>46000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3512,17 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3559,17 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3606,64 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-14200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-11900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>183000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>197000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>275100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>284400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3700,116 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>-17000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-70400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3824,11 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3251,26 +3847,35 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>15600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>11200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3912,17 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3959,17 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +4006,17 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +4053,17 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +4100,64 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>31300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>30400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +4172,58 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-600</v>
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4260,17 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4307,64 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-5900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-11300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-14600</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4379,11 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,10 +4418,19 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4467,17 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4514,17 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4561,64 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>5900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-13800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3880,71 +4626,89 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>11300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-12400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,182 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20400</v>
+        <v>18200</v>
       </c>
       <c r="E8" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F8" s="3">
         <v>15600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16200</v>
       </c>
-      <c r="G8" s="3">
-        <v>20700</v>
-      </c>
       <c r="H8" s="3">
-        <v>42700</v>
+        <v>21100</v>
       </c>
       <c r="I8" s="3">
+        <v>42300</v>
+      </c>
+      <c r="J8" s="3">
         <v>13600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3">
         <v>14800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>67900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20200</v>
+        <v>18000</v>
       </c>
       <c r="E9" s="3">
+        <v>35700</v>
+      </c>
+      <c r="F9" s="3">
         <v>15500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16000</v>
       </c>
-      <c r="G9" s="3">
-        <v>20700</v>
-      </c>
       <c r="H9" s="3">
-        <v>42500</v>
+        <v>21100</v>
       </c>
       <c r="I9" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J9" s="3">
         <v>13600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3">
         <v>13300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>29600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,25 +848,25 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>8</v>
@@ -864,20 +874,23 @@
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,38 +908,39 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,16 +1048,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>93700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1072,19 +1095,22 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>7200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>15600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="E17" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F17" s="3">
         <v>18200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18500</v>
       </c>
-      <c r="G17" s="3">
-        <v>23300</v>
-      </c>
       <c r="H17" s="3">
-        <v>48000</v>
+        <v>23700</v>
       </c>
       <c r="I17" s="3">
+        <v>47700</v>
+      </c>
+      <c r="J17" s="3">
         <v>17100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>26100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>142200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2100</v>
+        <v>-2800</v>
       </c>
       <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-5300</v>
-      </c>
       <c r="I18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>-11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-74300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>-1000</v>
       </c>
       <c r="F20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-200</v>
       </c>
       <c r="H20" s="3">
         <v>-200</v>
       </c>
       <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2000</v>
+        <v>-2900</v>
       </c>
       <c r="E21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>-6000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-47900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,91 +1357,97 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>400</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2000</v>
+        <v>-2900</v>
       </c>
       <c r="E23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>-13900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-64500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1429,26 +1475,29 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2000</v>
+        <v>-2900</v>
       </c>
       <c r="E26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>-17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-70400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2000</v>
+        <v>-2900</v>
       </c>
       <c r="E27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>-17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
       </c>
       <c r="F32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>200</v>
       </c>
       <c r="H32" s="3">
         <v>200</v>
       </c>
       <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2000</v>
+        <v>-2900</v>
       </c>
       <c r="E33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>-17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2000</v>
+        <v>-2900</v>
       </c>
       <c r="E35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>-17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,29 +2140,30 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2089,20 +2176,23 @@
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>44400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>42600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,17 +2238,20 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -2166,11 +2259,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2183,20 +2276,23 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>24500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,20 +2300,20 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2230,41 +2326,44 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>12100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2277,40 +2376,43 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>6500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
         <v>5700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2000</v>
       </c>
       <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
+      <c r="I46" s="3">
+        <v>2000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
@@ -2324,20 +2426,23 @@
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3">
         <v>87500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>109400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>84400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2395,7 +2503,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -2403,8 +2511,8 @@
       <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
+      <c r="I48" s="3">
+        <v>300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -2418,20 +2526,23 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>188700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>190500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>257100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>259300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2466,19 +2577,22 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
         <v>700</v>
       </c>
       <c r="P49" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q49" s="3">
         <v>43200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,16 +2700,16 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -2606,20 +2726,23 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>5100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,29 +2788,32 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2700,20 +2826,23 @@
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>282100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>307400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>395500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,28 +2880,29 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
+      <c r="I57" s="3">
+        <v>600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
@@ -2785,40 +2916,43 @@
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>41600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>41200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>14800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2832,20 +2966,23 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,20 +2990,20 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2879,41 +3016,44 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2926,20 +3066,23 @@
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3">
         <v>42800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,17 +3093,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2974,19 +3117,22 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>35000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>48300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2996,8 +3142,8 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -3011,8 +3157,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3021,19 +3167,22 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>21300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,29 +3328,32 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3208,20 +3366,23 @@
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>99100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>120400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,29 +3598,32 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-23400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3462,20 +3636,23 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-41700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-24600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,29 +3798,32 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-15600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-14200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3650,20 +3836,23 @@
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>183000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>197000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>275100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>284400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2000</v>
+        <v>-2900</v>
       </c>
       <c r="E81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>-17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3856,26 +4055,29 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>7200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="E89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>31300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4187,43 +4408,46 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>-100</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,46 +4555,49 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-3600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,10 +4661,13 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>1800</v>
       </c>
       <c r="E100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F100" s="3">
         <v>7800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-13800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4629,86 +4878,92 @@
         <v>-200</v>
       </c>
       <c r="F101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2300</v>
+        <v>-600</v>
       </c>
       <c r="E102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F102" s="3">
         <v>5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TGL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>TGL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,202 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="O7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F8" s="3">
         <v>18200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>36000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>15600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>16200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>21100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>42300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
         <v>14800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>67900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>36600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F9" s="3">
         <v>18000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>35700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>15500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>16000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>21100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>42100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="3">
         <v>13300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>29600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>19400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,16 +868,16 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -866,31 +886,37 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>38300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>17200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +935,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,35 +946,35 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
@@ -959,8 +987,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1043,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1051,16 +1091,22 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>93700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,19 +1144,25 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>7200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>15600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>11200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1178,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F17" s="3">
         <v>21000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>40700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>18200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>18500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>23700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>47700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>17100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>26100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>142200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>36400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>30200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2300</v>
       </c>
       <c r="H18" s="3">
         <v>-2600</v>
       </c>
       <c r="I18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-11300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-74300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1312,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>10800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-6000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>9600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1360,94 +1440,106 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-13900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-64500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1478,26 +1570,32 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>7700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1644,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-10500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-10500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1812,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1868,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1924,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1980,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-10500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2148,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-10500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O38" s="2">
+      <c r="O38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2291,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,35 +2313,37 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>7000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2179,20 +2353,26 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>44400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>30400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>42600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,35 +2421,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2279,31 +2465,37 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>24500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>60700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>13700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>31900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>400</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2314,11 +2506,11 @@
       <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>200</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -2329,47 +2521,53 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>12100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>7900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>22500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>22200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>900</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2379,47 +2577,53 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>6500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>10500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>5600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2429,20 +2633,26 @@
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="3">
         <v>87500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>109400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>84400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>91600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,34 +2701,40 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
+      <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
+        <v>300</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
@@ -2529,20 +2745,26 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>188700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>190500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>257100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>259300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2580,19 +2802,25 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>43200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2869,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,19 +2925,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2711,11 +2951,11 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+      <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
@@ -2729,20 +2969,26 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>5100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>6800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,35 +3037,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F54" s="3">
         <v>5700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2829,20 +3081,26 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>282100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>307400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>395500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3119,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,35 +3141,37 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2919,46 +3181,52 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>41600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>40000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>41200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>14800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -2969,47 +3237,53 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3019,47 +3293,53 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3069,20 +3349,26 @@
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="3">
         <v>42800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>41500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>43100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3096,20 +3382,20 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>7700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3120,19 +3406,25 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>35000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>47000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>48300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3145,11 +3437,11 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -3160,29 +3452,35 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>21300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>21900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>29000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>30900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3529,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3585,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,35 +3641,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3369,20 +3685,26 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>99100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>110400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>120400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3723,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3775,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3831,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3887,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,35 +3943,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-28300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-25400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-19700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-17100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3639,20 +3987,26 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-41700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>46000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4055,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4111,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,35 +4167,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-15600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-14200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-11900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3839,20 +4211,26 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>183000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>197000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>275100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>284400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4279,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O80" s="2">
+      <c r="O80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-70400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-10500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4422,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,14 +4433,14 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4058,26 +4456,32 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>15600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>11200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4530,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4586,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4642,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4698,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4754,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>31300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>30400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4836,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4411,43 +4853,49 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-600</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4944,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +5000,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4564,40 +5024,46 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-11300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-14600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5082,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,10 +5132,16 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5190,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5246,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5302,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>7700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>7800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>5900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-13800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-13300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,95 +5373,107 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-200</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>100</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>14000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>11300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-12400</v>
       </c>
     </row>
